--- a/Peticion_4/05032020_FUDDV.xlsx
+++ b/Peticion_4/05032020_FUDDV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisco/Aforos/Peticion_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91055EC8-E09C-644A-BE4C-406188B5D720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157BFA4-203B-2E4B-BDB2-72FD25E2DC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20800" windowWidth="51180" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05032020" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>NW</t>
+  </si>
+  <si>
+    <t>Se afora en dos partes primero WS,WE</t>
+  </si>
+  <si>
+    <t>Se afora en dos partes primero EN,EW</t>
+  </si>
+  <si>
+    <t>Aforando</t>
+  </si>
+  <si>
+    <t>AforandoENyEWprimero_luego se hacela otra</t>
   </si>
 </sst>
 </file>
@@ -1229,22 +1241,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="11.5" style="9"/>
+    <col min="1" max="2" width="0" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="9" customWidth="1"/>
     <col min="4" max="5" width="11.5" style="9"/>
     <col min="6" max="6" width="20.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="9" customWidth="1"/>
-    <col min="8" max="9" width="11.5" style="9"/>
-    <col min="10" max="11" width="13.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="9" hidden="1" customWidth="1"/>
     <col min="13" max="28" width="4.5" style="9" customWidth="1"/>
     <col min="29" max="29" width="61.5" style="10" customWidth="1"/>
-    <col min="30" max="30" width="30" style="9" customWidth="1"/>
-    <col min="31" max="33" width="37.1640625" style="9" customWidth="1"/>
+    <col min="30" max="30" width="30" style="9" hidden="1" customWidth="1"/>
+    <col min="31" max="33" width="37.1640625" style="9" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="70.1640625" style="9" customWidth="1"/>
     <col min="35" max="16384" width="11.5" style="9"/>
   </cols>
@@ -1397,7 +1411,9 @@
         <v>20</v>
       </c>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AM2" s="7"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
@@ -1466,7 +1482,9 @@
         <v>20</v>
       </c>
       <c r="AG3" s="5"/>
-      <c r="AH3" s="1"/>
+      <c r="AH3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AM3" s="7"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
@@ -1535,7 +1553,9 @@
         <v>20</v>
       </c>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="1"/>
+      <c r="AH4" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
@@ -1610,7 +1630,9 @@
         <v>20</v>
       </c>
       <c r="AG5" s="5"/>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="AM5" s="7"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
@@ -1685,7 +1707,9 @@
         <v>20</v>
       </c>
       <c r="AG6" s="5"/>
-      <c r="AH6" s="1"/>
+      <c r="AH6" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="AM6" s="7"/>
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
@@ -1760,7 +1784,9 @@
         <v>20</v>
       </c>
       <c r="AG7" s="5"/>
-      <c r="AH7" s="1"/>
+      <c r="AH7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AM7" s="7"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
@@ -1835,7 +1861,9 @@
         <v>20</v>
       </c>
       <c r="AG8" s="5"/>
-      <c r="AH8" s="1"/>
+      <c r="AH8" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="AM8" s="7"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>

--- a/Peticion_4/05032020_FUDDV.xlsx
+++ b/Peticion_4/05032020_FUDDV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisco/Aforos/Peticion_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erika\Aforos\Peticion_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157BFA4-203B-2E4B-BDB2-72FD25E2DC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C517A811-B535-4D59-97E6-B40B2375DFB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20800" windowWidth="51180" windowHeight="8000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05032020" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>AforandoENyEWprimero_luego se hacela otra</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>FALTA LINEA PEATONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVISAR </t>
   </si>
 </sst>
 </file>
@@ -256,7 +268,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +299,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -460,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,6 +594,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1241,29 +1280,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="0" style="9" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="9" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="9"/>
-    <col min="6" max="6" width="20.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="9"/>
+    <col min="5" max="5" width="20.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="9" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="9" hidden="1" customWidth="1"/>
-    <col min="13" max="28" width="4.5" style="9" customWidth="1"/>
-    <col min="29" max="29" width="61.5" style="10" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="13" max="28" width="4.42578125" style="9" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="61.42578125" style="10" customWidth="1"/>
     <col min="30" max="30" width="30" style="9" hidden="1" customWidth="1"/>
-    <col min="31" max="33" width="37.1640625" style="9" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="70.1640625" style="9" customWidth="1"/>
-    <col min="35" max="16384" width="11.5" style="9"/>
+    <col min="31" max="33" width="37.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="70.140625" style="9" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" style="9"/>
+    <col min="36" max="36" width="20" style="41" customWidth="1"/>
+    <col min="37" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="17" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="17" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1336,8 +1378,12 @@
       <c r="AH1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
+      <c r="AI1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="AK1" s="16"/>
       <c r="AL1" s="16"/>
       <c r="AM1" s="16"/>
@@ -1345,7 +1391,7 @@
       <c r="AO1" s="16"/>
       <c r="AP1" s="16"/>
     </row>
-    <row r="2" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>99</v>
       </c>
@@ -1414,11 +1460,15 @@
       <c r="AH2" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AI2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" s="40"/>
       <c r="AM2" s="7"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
     </row>
-    <row r="3" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>100</v>
       </c>
@@ -1485,11 +1535,17 @@
       <c r="AH3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AI3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="AM3" s="7"/>
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
     </row>
-    <row r="4" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>101</v>
       </c>
@@ -1556,11 +1612,17 @@
       <c r="AH4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AI4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ4" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="AM4" s="7"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
     </row>
-    <row r="5" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>102</v>
       </c>
@@ -1633,11 +1695,15 @@
       <c r="AH5" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="AI5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ5" s="40"/>
       <c r="AM5" s="7"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
     </row>
-    <row r="6" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>103</v>
       </c>
@@ -1710,11 +1776,15 @@
       <c r="AH6" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AI6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ6" s="40"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
     </row>
-    <row r="7" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>104</v>
       </c>
@@ -1787,11 +1857,15 @@
       <c r="AH7" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AI7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ7" s="40"/>
       <c r="AM7" s="7"/>
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
     </row>
-    <row r="8" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="6" customFormat="1" ht="181.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>105</v>
       </c>
@@ -1864,6 +1938,10 @@
       <c r="AH8" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="AI8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ8" s="40"/>
       <c r="AM8" s="7"/>
       <c r="AN8" s="8"/>
       <c r="AO8" s="8"/>
@@ -1909,22 +1987,22 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
